--- a/Documents/Logboek.xlsx
+++ b/Documents/Logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Avans\jaar 1\1.4\proftaak\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitWorkshop\Esstelingthegathering\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B54DA6FF-9ACA-4A3B-8A06-EC5574CBCCF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6452C3-1D56-49F2-B23A-B04959ACF5B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-13636" windowWidth="24267" windowHeight="13749" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
+    <workbookView xWindow="-108" yWindow="-13632" windowWidth="24264" windowHeight="13752" activeTab="1" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
   </bookViews>
   <sheets>
     <sheet name="Pascal" sheetId="1" r:id="rId1"/>
@@ -116,8 +116,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -145,9 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -464,23 +474,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61261EF6-4898-445D-AA29-9BD5FBB0A1C0}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -566,6 +576,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -573,23 +584,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC6AB8-5E0F-43ED-92B9-7C5EA2E219C7}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -653,22 +664,22 @@
   <dimension ref="B1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -740,23 +751,23 @@
   <dimension ref="B1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -809,22 +820,22 @@
   <dimension ref="B1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Documents/Logboek.xlsx
+++ b/Documents/Logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitWorkshop\Esstelingthegathering\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Avans\jaar 1\1.4\proftaak\Esstelingthegathering\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6452C3-1D56-49F2-B23A-B04959ACF5B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558EC35A-E6B2-4518-8F09-59DAD7F3236F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13632" windowWidth="24264" windowHeight="13752" activeTab="1" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
   </bookViews>
   <sheets>
     <sheet name="Pascal" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Activiteit</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>Accounts mogelijk maken</t>
+  </si>
+  <si>
+    <t>nieuw protorype maken zonder mic</t>
+  </si>
+  <si>
+    <t>MQtt onderzoek</t>
+  </si>
+  <si>
+    <t>mqtt op esp32</t>
+  </si>
+  <si>
+    <t>mqtt op anndoid</t>
+  </si>
+  <si>
+    <t>esp32 bugs er uit halen</t>
   </si>
 </sst>
 </file>
@@ -474,16 +489,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61261EF6-4898-445D-AA29-9BD5FBB0A1C0}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -505,7 +520,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -516,7 +531,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -527,7 +542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -538,15 +553,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -557,7 +575,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -568,10 +586,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D25">
         <f>SUM(D2:D24)</f>
-        <v>5.75</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -584,11 +657,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC6AB8-5E0F-43ED-92B9-7C5EA2E219C7}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -667,7 +740,7 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -754,7 +827,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
@@ -823,7 +896,7 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>

--- a/Documents/Logboek.xlsx
+++ b/Documents/Logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Avans\jaar 1\1.4\proftaak\Esstelingthegathering\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\huiswerk\project_1.4\Esstelingthegathering\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558EC35A-E6B2-4518-8F09-59DAD7F3236F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE75D61-1A3A-4BA0-B8A8-5A8FABBC5255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24270" windowHeight="13155" activeTab="2" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
   </bookViews>
   <sheets>
     <sheet name="Pascal" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Activiteit</t>
   </si>
@@ -121,10 +120,19 @@
     <t>mqtt op esp32</t>
   </si>
   <si>
-    <t>mqtt op anndoid</t>
-  </si>
-  <si>
     <t>esp32 bugs er uit halen</t>
+  </si>
+  <si>
+    <t>mqtt op android</t>
+  </si>
+  <si>
+    <t>dbhelper schrijven</t>
+  </si>
+  <si>
+    <t>afbeeldingen kunnen toevoegen</t>
+  </si>
+  <si>
+    <t>db uitbreiden</t>
   </si>
 </sst>
 </file>
@@ -489,16 +497,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61261EF6-4898-445D-AA29-9BD5FBB0A1C0}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -509,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -520,7 +528,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -531,7 +539,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -542,7 +550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -553,7 +561,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -564,7 +572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -575,7 +583,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -586,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -597,7 +605,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -608,7 +616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -619,9 +627,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -630,9 +638,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -641,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>22</v>
@@ -661,12 +669,12 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -677,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -688,7 +696,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -699,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -710,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -721,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>4.75</v>
@@ -736,16 +744,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10B3A5F-D2C3-4516-ABB2-579FD7EEF53A}">
   <dimension ref="B1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,7 +764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -767,7 +775,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -778,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -789,7 +797,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -797,21 +805,57 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26">
         <f>SUM(D3:D25)</f>
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
     </row>
   </sheetData>
@@ -827,13 +871,13 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -844,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -855,7 +899,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -866,7 +910,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -877,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>4</v>
@@ -896,12 +940,12 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -912,7 +956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -923,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -934,7 +978,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -945,7 +989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -956,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -964,7 +1008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>4.75</v>

--- a/Documents/Logboek.xlsx
+++ b/Documents/Logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\huiswerk\project_1.4\Esstelingthegathering\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Avans\jaar 1\1.4\proftaak\Esstelingthegathering\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE75D61-1A3A-4BA0-B8A8-5A8FABBC5255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C49AA21-DECC-4A52-AEA7-1089E54E69C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24270" windowHeight="13155" activeTab="2" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
   </bookViews>
   <sheets>
     <sheet name="Pascal" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Activiteit</t>
   </si>
@@ -133,6 +134,21 @@
   </si>
   <si>
     <t>db uitbreiden</t>
+  </si>
+  <si>
+    <t>arduino code schrijven</t>
+  </si>
+  <si>
+    <t>UX design groeps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1 -7</t>
+  </si>
+  <si>
+    <t>nieuw esp code schrijven</t>
+  </si>
+  <si>
+    <t>android bugs fixen</t>
   </si>
 </sst>
 </file>
@@ -176,11 +192,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -497,16 +516,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61261EF6-4898-445D-AA29-9BD5FBB0A1C0}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -517,7 +536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -528,7 +547,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -539,120 +558,164 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>6</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>7</v>
       </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D25">
         <f>SUM(D2:D24)</f>
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -669,12 +732,12 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -685,7 +748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -696,7 +759,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -707,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -718,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -729,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>4.75</v>
@@ -744,16 +807,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10B3A5F-D2C3-4516-ABB2-579FD7EEF53A}">
   <dimension ref="B1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -764,7 +827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -775,7 +838,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -786,7 +849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -797,7 +860,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -808,7 +871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -819,7 +882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -830,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -841,7 +904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -852,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26">
         <f>SUM(D3:D25)</f>
         <v>16.5</v>
@@ -871,13 +934,13 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -888,7 +951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -899,7 +962,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -910,7 +973,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -921,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>4</v>
@@ -940,12 +1003,12 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -956,7 +1019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -967,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -978,7 +1041,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -989,7 +1052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1000,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1008,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>4.75</v>

--- a/Documents/Logboek.xlsx
+++ b/Documents/Logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Avans\jaar 1\1.4\proftaak\Esstelingthegathering\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitKraken\Esstelingthegathering\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C49AA21-DECC-4A52-AEA7-1089E54E69C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1B5F1D-D6C5-48B2-B0D6-4BC89DAB08E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24270" windowHeight="13155" activeTab="3" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
   </bookViews>
   <sheets>
     <sheet name="Pascal" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Activiteit</t>
   </si>
@@ -149,6 +148,36 @@
   </si>
   <si>
     <t>android bugs fixen</t>
+  </si>
+  <si>
+    <t>Cards klasse</t>
+  </si>
+  <si>
+    <t>UX Design groeps</t>
+  </si>
+  <si>
+    <t>Presentaties maken en presenteren</t>
+  </si>
+  <si>
+    <t>3 &amp; 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 -7</t>
+  </si>
+  <si>
+    <t>QR implementatie in project</t>
+  </si>
+  <si>
+    <t>Communicatie tussen achievements en scanner</t>
+  </si>
+  <si>
+    <t>Standups en besprekingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 -7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON IO </t>
   </si>
 </sst>
 </file>
@@ -192,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,6 +229,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -516,16 +548,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61261EF6-4898-445D-AA29-9BD5FBB0A1C0}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -547,7 +579,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -558,7 +590,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -569,7 +601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -580,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -591,7 +623,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -602,7 +634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -613,7 +645,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -624,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -635,7 +667,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -646,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -657,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -668,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -679,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -690,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -701,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -712,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>33</v>
@@ -732,12 +764,12 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -748,7 +780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -759,7 +791,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -770,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -781,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -792,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>4.75</v>
@@ -811,12 +843,12 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -827,7 +859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -838,7 +870,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -849,7 +881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -860,7 +892,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -871,7 +903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -882,7 +914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -893,7 +925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -904,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -915,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26">
         <f>SUM(D3:D25)</f>
         <v>16.5</v>
@@ -930,17 +962,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326840BB-C380-4273-A748-9A7CDF670EFE}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -951,7 +983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -962,7 +994,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -973,21 +1005,98 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>SUM(D2:D24)</f>
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1003,12 +1112,12 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +1150,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -1052,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1063,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1071,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>4.75</v>

--- a/Documents/Logboek.xlsx
+++ b/Documents/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitKraken\Esstelingthegathering\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1B5F1D-D6C5-48B2-B0D6-4BC89DAB08E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED6D6C5-794C-484E-80E5-06DBFAA7A1DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24270" windowHeight="13155" activeTab="3" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>Activiteit</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve">JSON IO </t>
+  </si>
+  <si>
+    <t>Toevoegen card data aan inventory</t>
   </si>
 </sst>
 </file>
@@ -963,7 +966,7 @@
   <dimension ref="B1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,10 +1096,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>SUM(D2:D24)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Logboek.xlsx
+++ b/Documents/Logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitKraken\Esstelingthegathering\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Avans\jaar 1\1.4\proftaak\Esstelingthegathering\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED6D6C5-794C-484E-80E5-06DBFAA7A1DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ED031D-DF9F-4180-8B8D-0ADCE59C34A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24270" windowHeight="13155" activeTab="3" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" activeTab="1" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
   </bookViews>
   <sheets>
     <sheet name="Pascal" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Activiteit</t>
   </si>
@@ -181,6 +182,48 @@
   </si>
   <si>
     <t>Toevoegen card data aan inventory</t>
+  </si>
+  <si>
+    <t>making mockups</t>
+  </si>
+  <si>
+    <t>Achievement UI uitwerken</t>
+  </si>
+  <si>
+    <t>made temporary homescreen</t>
+  </si>
+  <si>
+    <t>UX design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">editing layout </t>
+  </si>
+  <si>
+    <t>editing colors</t>
+  </si>
+  <si>
+    <t>searching for icons with right background color</t>
+  </si>
+  <si>
+    <t>implementing icons</t>
+  </si>
+  <si>
+    <t>adding colors</t>
+  </si>
+  <si>
+    <t>preparing presentation</t>
+  </si>
+  <si>
+    <t>searched new colors</t>
+  </si>
+  <si>
+    <t>finalized all colors</t>
+  </si>
+  <si>
+    <t>Checkin items added</t>
+  </si>
+  <si>
+    <t>achievement items added</t>
   </si>
 </sst>
 </file>
@@ -224,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -235,6 +278,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -552,15 +597,15 @@
   <dimension ref="B1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -571,7 +616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -582,7 +627,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -593,7 +638,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -604,7 +649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -615,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -626,7 +671,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -637,7 +682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -648,7 +693,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -659,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -670,7 +715,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -681,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -692,7 +737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -703,7 +748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -714,7 +759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -725,7 +770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -736,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -747,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>33</v>
@@ -761,76 +806,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC6AB8-5E0F-43ED-92B9-7C5EA2E219C7}">
-  <dimension ref="B1:D25"/>
+  <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8">
         <v>1.75</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C4" s="8">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="8">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <f>SUM(D2:D24)</f>
-        <v>4.75</v>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="8">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8">
+        <v>7</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8">
+        <v>9</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="8">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="8">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="8">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8">
+        <v>30.25</v>
       </c>
     </row>
   </sheetData>
@@ -846,12 +1046,12 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +1062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -873,7 +1073,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -884,7 +1084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -895,7 +1095,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -906,7 +1106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -917,7 +1117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -928,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -939,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -950,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26">
         <f>SUM(D3:D25)</f>
         <v>16.5</v>
@@ -965,17 +1165,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326840BB-C380-4273-A748-9A7CDF670EFE}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -997,7 +1197,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -1008,7 +1208,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -1019,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1030,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>39</v>
       </c>
@@ -1041,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>45</v>
       </c>
@@ -1052,7 +1252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -1063,7 +1263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -1074,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -1085,7 +1285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>44</v>
       </c>
@@ -1096,7 +1296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>48</v>
       </c>
@@ -1107,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>25</v>
@@ -1126,12 +1326,12 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1153,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -1164,7 +1364,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -1175,7 +1375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1186,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>4.75</v>

--- a/Documents/Logboek.xlsx
+++ b/Documents/Logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Avans\jaar 1\1.4\proftaak\Esstelingthegathering\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\huiswerk\project_1.4\Esstelingthegathering\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ED031D-DF9F-4180-8B8D-0ADCE59C34A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B39AD1-7E60-4C37-BAC9-DA1867AF21B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" activeTab="1" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24270" windowHeight="13155" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
   </bookViews>
   <sheets>
     <sheet name="Pascal" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Activiteit</t>
   </si>
@@ -179,51 +178,6 @@
   </si>
   <si>
     <t xml:space="preserve">JSON IO </t>
-  </si>
-  <si>
-    <t>Toevoegen card data aan inventory</t>
-  </si>
-  <si>
-    <t>making mockups</t>
-  </si>
-  <si>
-    <t>Achievement UI uitwerken</t>
-  </si>
-  <si>
-    <t>made temporary homescreen</t>
-  </si>
-  <si>
-    <t>UX design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">editing layout </t>
-  </si>
-  <si>
-    <t>editing colors</t>
-  </si>
-  <si>
-    <t>searching for icons with right background color</t>
-  </si>
-  <si>
-    <t>implementing icons</t>
-  </si>
-  <si>
-    <t>adding colors</t>
-  </si>
-  <si>
-    <t>preparing presentation</t>
-  </si>
-  <si>
-    <t>searched new colors</t>
-  </si>
-  <si>
-    <t>finalized all colors</t>
-  </si>
-  <si>
-    <t>Checkin items added</t>
-  </si>
-  <si>
-    <t>achievement items added</t>
   </si>
 </sst>
 </file>
@@ -267,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -278,8 +232,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -596,16 +548,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61261EF6-4898-445D-AA29-9BD5FBB0A1C0}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -616,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -627,7 +579,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -638,7 +590,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -649,7 +601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -660,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -671,7 +623,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -682,7 +634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -693,7 +645,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -704,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -715,7 +667,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -726,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -737,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -748,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -759,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -770,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -781,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -792,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>33</v>
@@ -806,231 +758,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC6AB8-5E0F-43ED-92B9-7C5EA2E219C7}">
-  <dimension ref="B1:D24"/>
+  <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>1.75</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="8">
-        <v>3</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="8">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="8">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="8">
-        <v>6</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="8">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="8">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="8">
-        <v>7</v>
-      </c>
-      <c r="D12" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="8">
-        <v>7</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="8">
-        <v>7</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="8">
-        <v>7</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="8">
-        <v>9</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="8">
-        <v>9</v>
-      </c>
-      <c r="D17" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="8">
-        <v>9</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="8">
-        <v>9</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8">
-        <v>30.25</v>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>SUM(D2:D24)</f>
+        <v>4.75</v>
       </c>
     </row>
   </sheetData>
@@ -1043,15 +840,15 @@
   <dimension ref="B1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -1073,7 +870,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -1084,7 +881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -1095,7 +892,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -1103,10 +900,10 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -1114,10 +911,10 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -1125,10 +922,10 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -1139,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -1147,13 +944,13 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26">
         <f>SUM(D3:D25)</f>
-        <v>16.5</v>
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>
@@ -1166,16 +963,16 @@
   <dimension ref="B1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -1197,7 +994,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -1208,7 +1005,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -1219,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1230,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>39</v>
       </c>
@@ -1241,7 +1038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>45</v>
       </c>
@@ -1252,7 +1049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -1263,7 +1060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -1274,7 +1071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -1285,7 +1082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>44</v>
       </c>
@@ -1296,21 +1093,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>SUM(D2:D24)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1326,12 +1112,12 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1353,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -1364,7 +1150,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -1375,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1386,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1394,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>4.75</v>

--- a/Documents/Logboek.xlsx
+++ b/Documents/Logboek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\huiswerk\project_1.4\Esstelingthegathering\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B39AD1-7E60-4C37-BAC9-DA1867AF21B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5239420D-1AAF-452C-9E7F-01466DC2A374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24270" windowHeight="13155" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24270" windowHeight="13155" activeTab="2" xr2:uid="{9425F2B3-4CB4-4DCB-B8C1-0C6D99F9C061}"/>
   </bookViews>
   <sheets>
     <sheet name="Pascal" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Activiteit</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t xml:space="preserve">JSON IO </t>
+  </si>
+  <si>
+    <t>git managen</t>
+  </si>
+  <si>
+    <t>3t/m9</t>
   </si>
 </sst>
 </file>
@@ -221,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -232,6 +238,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -548,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61261EF6-4898-445D-AA29-9BD5FBB0A1C0}">
   <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -839,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10B3A5F-D2C3-4516-ABB2-579FD7EEF53A}">
   <dimension ref="B1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,10 +954,21 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26">
         <f>SUM(D3:D25)</f>
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
     </row>
   </sheetData>
